--- a/CommandLineScriptsHandout.xlsx
+++ b/CommandLineScriptsHandout.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtr932\Documents\Talks\command-line-bash-scripting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17160"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Command Line: Bash Scripting Workshop Handout</t>
   </si>
@@ -25,386 +33,747 @@
     <t>head -n 12 octane.pdb | tail -n 10</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t xml:space="preserve">vi middle.sh </t>
   </si>
   <si>
-    <t>script</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+    <t>vi middle.sh</t>
+  </si>
+  <si>
+    <t>head –n 12 $1 | tail –n 10</t>
+  </si>
+  <si>
+    <t>bash middle.sh octane.pdb</t>
+  </si>
+  <si>
+    <t>bash middle.sh "high octane.pdb"</t>
+  </si>
+  <si>
+    <t>head –n 12 "$1" | tail –n 10</t>
+  </si>
+  <si>
+    <t># Select lines from the middle of a file.</t>
+  </si>
+  <si>
+    <t># Usage: bash middle.sh filename end_line num_lines</t>
+  </si>
+  <si>
+    <t>head -n "$2" "$1" | tail -n "$3"</t>
+  </si>
+  <si>
+    <t>bash middle.sh pentane.pdb 12 10</t>
+  </si>
+  <si>
+    <t>cd ../creatures</t>
+  </si>
+  <si>
+    <t>for filename in basilisk.dat unicorn.dat</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   head -n 2 "$filename" | tail -n 1</t>
+  </si>
+  <si>
+    <t>vi copy_files.sh</t>
+  </si>
+  <si>
+    <t>for filename in *.dat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
         <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>do</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">   echo "$filename"</t>
+    </r>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>bash copy_files.sh</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    echo 'cp "$filename" original-"$filename"'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>bash copy_files.sh</t>
+    </r>
+  </si>
+  <si>
+    <t>for filename in $@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cp "$filename" original-"$filename"</t>
+  </si>
+  <si>
+    <t>bash copy_files.sh *.dat</t>
+  </si>
+  <si>
+    <t>rm original*.dat</t>
+  </si>
+  <si>
+    <t>ls -l copy_files.sh</t>
+  </si>
+  <si>
+    <t>chmod +x copy_files.sh</t>
+  </si>
+  <si>
+    <t>#!/usr/bin/env bash</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>done</t>
+    </r>
+  </si>
+  <si>
+    <t>./copy_files.sh *.dat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>head -n 12 octane.pdb | tail -n 10</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
+        <sz val="7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>bash middle.sh</t>
     </r>
   </si>
   <si>
-    <t>argument</t>
-  </si>
-  <si>
-    <t>vi middle.sh</t>
-  </si>
-  <si>
-    <t>head –n 12 $1 | tail –n 10</t>
-  </si>
-  <si>
-    <t>bash middle.sh octane.pdb</t>
-  </si>
-  <si>
-    <t>bash middle.sh "high octane.pdb"</t>
-  </si>
-  <si>
-    <t>quote your</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>head –n 12 "$1" | tail –n 10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>bash middle.sh "high octane.pdb"</t>
     </r>
   </si>
   <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>arguments</t>
-  </si>
-  <si>
-    <t># Select lines from the middle of a file.</t>
-  </si>
-  <si>
-    <t># Usage: bash middle.sh filename end_line num_lines</t>
-  </si>
-  <si>
-    <t>head -n "$2" "$1" | tail -n "$3"</t>
-  </si>
-  <si>
-    <t>bash middle.sh pentane.pdb 12 10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>bash middle.sh pentane.pdb 19 17</t>
     </r>
   </si>
   <si>
-    <t>loops</t>
-  </si>
-  <si>
-    <t>cd ../creatures</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>vi list_creatures.sh</t>
     </r>
   </si>
   <si>
-    <t>for filename in basilisk.dat unicorn.dat</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   head -n 2 "$filename" | tail -n 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>done</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
+        <sz val="7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>bash list_creatures.sh</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Note: Line numbers are inserted for the ease of refering to each command. Indented are the lines that should be typed in the file. </t>
-  </si>
-  <si>
-    <t>Expanding</t>
-  </si>
-  <si>
-    <t>vi copy_files.sh</t>
-  </si>
-  <si>
-    <t>wildcard</t>
-  </si>
-  <si>
-    <t>for filename in *.dat</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <t>do</t>
-    </r>
-  </si>
-  <si>
-    <t>Files</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <t xml:space="preserve">   echo "$filename"</t>
-    </r>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <t>bash copy_files.sh</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    echo 'cp "$filename" original-"$filename"'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <t>bash copy_files.sh</t>
-    </r>
-  </si>
-  <si>
-    <t>Introduce $@</t>
-  </si>
-  <si>
-    <t>for filename in $@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    cp "$filename" original-"$filename"</t>
-  </si>
-  <si>
-    <t>bash copy_files.sh *.dat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permission </t>
-  </si>
-  <si>
-    <t>rm original*.dat</t>
-  </si>
-  <si>
-    <t>to execute</t>
-  </si>
-  <si>
-    <t>ls -l copy_files.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and define </t>
-  </si>
-  <si>
-    <t>chmod +x copy_files.sh</t>
-  </si>
-  <si>
-    <t>shebang</t>
-  </si>
-  <si>
-    <t>#!/usr/bin/env bash</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <t>done</t>
-    </r>
-  </si>
-  <si>
-    <t>./copy_files.sh *.dat</t>
+    <t>Download and unzip data file: http://bit.ly/shell-workshop-data</t>
+  </si>
+  <si>
+    <t>First x lines after header</t>
+  </si>
+  <si>
+    <t>Create script</t>
+  </si>
+  <si>
+    <t>Script arguments</t>
+  </si>
+  <si>
+    <t>Variable quoting</t>
+  </si>
+  <si>
+    <t>Multiple arguments</t>
+  </si>
+  <si>
+    <t>Looping</t>
+  </si>
+  <si>
+    <t>Note: Indented lines should be typed in the file.</t>
+  </si>
+  <si>
+    <t>Wildcards</t>
+  </si>
+  <si>
+    <t>Building up a script</t>
+  </si>
+  <si>
+    <t>with "echo"</t>
+  </si>
+  <si>
+    <t>Variable arguments</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>"shebang" lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA848"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="12.14"/>
-    <col customWidth="1" min="3" max="27" width="8.71"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,555 +803,654 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="2" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B14" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B16" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B18" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B19" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B21" s="11">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B22" s="11">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B23" s="11">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B24" s="11">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B25" s="11">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="11">
+        <v>20</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B27" s="11">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B28" s="11">
+        <v>22</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B29" s="11">
+        <v>23</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="30" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B30" s="11">
+        <v>24</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
+    <row r="31" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B31" s="11">
+        <v>25</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B32" s="11">
+        <v>26</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B33" s="11"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B34" s="11"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B35" s="11"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B36" s="11"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B37" s="11"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="11">
+        <v>27</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B39" s="11">
+        <v>28</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B40" s="11">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="41" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B41" s="11">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    <row r="42" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B42" s="11">
+        <v>31</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="43" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B43" s="11">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="C21" s="4" t="s">
+    <row r="44" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="11">
+        <v>33</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="11">
+        <v>34</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B46" s="11">
+        <v>35</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B47" s="11">
+        <v>36</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
+    <row r="48" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B48" s="11">
+        <v>37</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B49" s="11">
+        <v>38</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B50" s="11">
+        <v>39</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="11">
+        <v>40</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="52" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B52" s="11">
+        <v>41</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B53" s="11">
+        <v>42</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B54" s="11">
+        <v>43</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="D24" s="4" t="s">
+    <row r="55" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B55" s="11">
+        <v>44</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B56" s="11">
+        <v>45</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="D25" s="4" t="s">
+    <row r="57" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A57" s="5"/>
+      <c r="B57" s="11">
+        <v>46</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="58" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="11">
+        <v>47</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="D27" s="4" t="s">
+    <row r="59" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="11">
+        <v>48</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="C28" s="4" t="s">
+    <row r="60" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="11">
+        <v>49</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="11">
+        <v>50</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="6" t="s">
+    <row r="62" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B62" s="11">
+        <v>51</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B63" s="11">
+        <v>52</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B64" s="11">
+        <v>53</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B65" s="11">
+        <v>54</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B66" s="11">
+        <v>55</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="5"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
+    </row>
+    <row r="67" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B67" s="11">
+        <v>56</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="B43" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="B49" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="B50" s="3">
-        <v>43.0</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="3">
-        <v>44.0</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="3">
-        <v>46.0</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3">
-        <v>47.0</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3">
-        <v>49.0</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="B57" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="B59" s="3">
-        <v>52.0</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="B60" s="3">
-        <v>53.0</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="B61" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="B62" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="B63" s="7">
-        <v>56.0</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="69" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="70" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="72" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="73" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="74" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="75" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="76" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="77" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="78" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="79" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="80" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -1747,10 +2215,12 @@
     <row r="842" ht="14.25" customHeight="1"/>
     <row r="843" ht="14.25" customHeight="1"/>
     <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CommandLineScriptsHandout.xlsx
+++ b/CommandLineScriptsHandout.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Command Line: Bash Scripting Workshop Handout</t>
   </si>
@@ -81,80 +81,12 @@
     <t>for filename in *.dat</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>do</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">   echo "$filename"</t>
-    </r>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>bash copy_files.sh</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">    echo 'cp "$filename" original-"$filename"'</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>bash copy_files.sh</t>
-    </r>
-  </si>
-  <si>
     <t>for filename in $@</t>
   </si>
   <si>
@@ -176,24 +108,61 @@
     <t>#!/usr/bin/env bash</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>done</t>
-    </r>
-  </si>
-  <si>
     <t>./copy_files.sh *.dat</t>
+  </si>
+  <si>
+    <t>Download and unzip data file: http://bit.ly/shell-workshop-data</t>
+  </si>
+  <si>
+    <t>First x lines after header</t>
+  </si>
+  <si>
+    <t>Create script</t>
+  </si>
+  <si>
+    <t>Script arguments</t>
+  </si>
+  <si>
+    <t>Variable quoting</t>
+  </si>
+  <si>
+    <t>Multiple arguments</t>
+  </si>
+  <si>
+    <t>Looping</t>
+  </si>
+  <si>
+    <t>Note: Indented lines should be typed in the file.</t>
+  </si>
+  <si>
+    <t>Wildcards</t>
+  </si>
+  <si>
+    <t>Building up a script</t>
+  </si>
+  <si>
+    <t>with "echo"</t>
+  </si>
+  <si>
+    <t>Variable arguments</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>"shebang" lines</t>
+  </si>
+  <si>
+    <t>bash middle.sh</t>
+  </si>
+  <si>
+    <t>bash middle.sh pentane.pdb 19 17</t>
+  </si>
+  <si>
+    <t>vi list_creatures.sh</t>
+  </si>
+  <si>
+    <t>bash list_creatures.sh</t>
   </si>
   <si>
     <r>
@@ -211,171 +180,18 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>head -n 12 octane.pdb | tail -n 10</t>
+      <t xml:space="preserve">   echo "$filename"</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>bash middle.sh</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>bash middle.sh "high octane.pdb"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>bash middle.sh pentane.pdb 19 17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>vi list_creatures.sh</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>done</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>bash list_creatures.sh</t>
-    </r>
-  </si>
-  <si>
-    <t>Download and unzip data file: http://bit.ly/shell-workshop-data</t>
-  </si>
-  <si>
-    <t>First x lines after header</t>
-  </si>
-  <si>
-    <t>Create script</t>
-  </si>
-  <si>
-    <t>Script arguments</t>
-  </si>
-  <si>
-    <t>Variable quoting</t>
-  </si>
-  <si>
-    <t>Multiple arguments</t>
-  </si>
-  <si>
-    <t>Looping</t>
-  </si>
-  <si>
-    <t>Note: Indented lines should be typed in the file.</t>
-  </si>
-  <si>
-    <t>Wildcards</t>
-  </si>
-  <si>
-    <t>Building up a script</t>
-  </si>
-  <si>
-    <t>with "echo"</t>
-  </si>
-  <si>
-    <t>Variable arguments</t>
-  </si>
-  <si>
-    <t>Permissions</t>
-  </si>
-  <si>
-    <t>"shebang" lines</t>
+    <t>bash copy_files.sh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -399,10 +215,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12"/>
@@ -459,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,15 +282,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,15 +577,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA848"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="27" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.3828125" customWidth="1"/>
+    <col min="2" max="2" width="12.15234375" customWidth="1"/>
+    <col min="3" max="27" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1">
@@ -833,7 +648,7 @@
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -891,7 +706,7 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -910,7 +725,7 @@
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -932,7 +747,7 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B10" s="11">
         <v>4</v>
@@ -947,22 +762,22 @@
         <v>5</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
+      <c r="D11" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1">
       <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B13" s="11">
         <v>7</v>
@@ -1001,7 +816,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B17" s="11">
         <v>11</v>
@@ -1024,14 +839,14 @@
       <c r="B19" s="11">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>37</v>
+      <c r="C19" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B20" s="11">
         <v>14</v>
@@ -1081,14 +896,14 @@
       <c r="B25" s="11">
         <v>19</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>38</v>
+      <c r="C25" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B26" s="11">
         <v>20</v>
@@ -1102,8 +917,8 @@
       <c r="B27" s="11">
         <v>21</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>39</v>
+      <c r="C27" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D27" s="7"/>
     </row>
@@ -1139,16 +954,16 @@
         <v>25</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="6" t="s">
-        <v>40</v>
+      <c r="D31" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="B32" s="11">
         <v>26</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>41</v>
+      <c r="C32" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D32" s="7"/>
     </row>
@@ -1174,7 +989,7 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B38" s="11">
         <v>27</v>
@@ -1188,7 +1003,8 @@
       <c r="B39" s="11">
         <v>28</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1196,54 +1012,59 @@
       <c r="B40" s="11">
         <v>29</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>20</v>
+      <c r="C40" s="6"/>
+      <c r="D40" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="B41" s="11">
         <v>30</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>21</v>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="B42" s="11">
         <v>31</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>22</v>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="B43" s="11">
         <v>32</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B44" s="11">
         <v>33</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B45" s="11">
         <v>34</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1251,7 +1072,8 @@
       <c r="B46" s="11">
         <v>35</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1259,51 +1081,56 @@
       <c r="B47" s="11">
         <v>36</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="B48" s="11">
         <v>37</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>22</v>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1">
       <c r="B49" s="11">
         <v>38</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C49" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="B50" s="11">
         <v>39</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B51" s="11">
         <v>40</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>26</v>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1">
       <c r="B52" s="11">
         <v>41</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1311,96 +1138,107 @@
       <c r="B53" s="11">
         <v>42</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>24</v>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1">
       <c r="B54" s="11">
         <v>43</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>27</v>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1">
       <c r="B55" s="11">
         <v>44</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>22</v>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1">
       <c r="B56" s="11">
         <v>45</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="11">
         <v>46</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="11">
         <v>47</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B59" s="11">
         <v>48</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="C59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="11">
         <v>49</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B61" s="11">
         <v>50</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>32</v>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1">
       <c r="B62" s="11">
         <v>51</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>26</v>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1">
       <c r="B63" s="11">
         <v>52</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1408,33 +1246,37 @@
       <c r="B64" s="11">
         <v>53</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>24</v>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1">
       <c r="B65" s="11">
         <v>54</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>27</v>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1">
       <c r="B66" s="11">
         <v>55</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>33</v>
+      <c r="C66" s="6"/>
+      <c r="D66" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1">
       <c r="B67" s="11">
         <v>56</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="69" spans="1:4" ht="14.25" customHeight="1"/>
